--- a/Banco Central/13/1/2/3/Operaciones financieras 2005 a 2021 - Mensual.xlsx
+++ b/Banco Central/13/1/2/3/Operaciones financieras 2005 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="166">
   <si>
     <t>Serie</t>
   </si>
@@ -509,6 +509,9 @@
   </si>
   <si>
     <t>01-05-2021</t>
+  </si>
+  <si>
+    <t>01-06-2021</t>
   </si>
 </sst>
 </file>
@@ -866,7 +869,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB142"/>
+  <dimension ref="A1:AB143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12701,7 +12704,7 @@
         <v>0</v>
       </c>
       <c r="P138">
-        <v>2368</v>
+        <v>2372</v>
       </c>
       <c r="Q138">
         <v>0</v>
@@ -12734,10 +12737,10 @@
         <v>0</v>
       </c>
       <c r="AA138">
-        <v>2368</v>
+        <v>2372</v>
       </c>
       <c r="AB138">
-        <v>-2368</v>
+        <v>-2372</v>
       </c>
     </row>
     <row r="139" spans="1:28">
@@ -12787,7 +12790,7 @@
         <v>0</v>
       </c>
       <c r="P139">
-        <v>2318</v>
+        <v>2324</v>
       </c>
       <c r="Q139">
         <v>0</v>
@@ -12820,10 +12823,10 @@
         <v>0</v>
       </c>
       <c r="AA139">
-        <v>2318</v>
+        <v>2324</v>
       </c>
       <c r="AB139">
-        <v>-2318</v>
+        <v>-2324</v>
       </c>
     </row>
     <row r="140" spans="1:28">
@@ -12873,7 +12876,7 @@
         <v>0</v>
       </c>
       <c r="P140">
-        <v>2267</v>
+        <v>2276</v>
       </c>
       <c r="Q140">
         <v>0</v>
@@ -12906,10 +12909,10 @@
         <v>0</v>
       </c>
       <c r="AA140">
-        <v>2267</v>
+        <v>2276</v>
       </c>
       <c r="AB140">
-        <v>-2267</v>
+        <v>-2276</v>
       </c>
     </row>
     <row r="141" spans="1:28">
@@ -12959,7 +12962,7 @@
         <v>0</v>
       </c>
       <c r="P141">
-        <v>2187</v>
+        <v>2197</v>
       </c>
       <c r="Q141">
         <v>0</v>
@@ -12992,10 +12995,10 @@
         <v>0</v>
       </c>
       <c r="AA141">
-        <v>2187</v>
+        <v>2197</v>
       </c>
       <c r="AB141">
-        <v>-2187</v>
+        <v>-2197</v>
       </c>
     </row>
     <row r="142" spans="1:28">
@@ -13045,7 +13048,7 @@
         <v>0</v>
       </c>
       <c r="P142">
-        <v>2122</v>
+        <v>2134</v>
       </c>
       <c r="Q142">
         <v>0</v>
@@ -13078,10 +13081,96 @@
         <v>0</v>
       </c>
       <c r="AA142">
-        <v>2122</v>
+        <v>2134</v>
       </c>
       <c r="AB142">
-        <v>-2122</v>
+        <v>-2134</v>
+      </c>
+    </row>
+    <row r="143" spans="1:28">
+      <c r="A143" t="s">
+        <v>165</v>
+      </c>
+      <c r="B143">
+        <v>0</v>
+      </c>
+      <c r="C143">
+        <v>0</v>
+      </c>
+      <c r="D143">
+        <v>0</v>
+      </c>
+      <c r="E143">
+        <v>0</v>
+      </c>
+      <c r="F143">
+        <v>0</v>
+      </c>
+      <c r="G143">
+        <v>0</v>
+      </c>
+      <c r="H143">
+        <v>0</v>
+      </c>
+      <c r="I143">
+        <v>0</v>
+      </c>
+      <c r="J143">
+        <v>0</v>
+      </c>
+      <c r="K143">
+        <v>0</v>
+      </c>
+      <c r="L143">
+        <v>0</v>
+      </c>
+      <c r="M143">
+        <v>0</v>
+      </c>
+      <c r="N143">
+        <v>0</v>
+      </c>
+      <c r="O143">
+        <v>0</v>
+      </c>
+      <c r="P143">
+        <v>2071</v>
+      </c>
+      <c r="Q143">
+        <v>0</v>
+      </c>
+      <c r="R143">
+        <v>0</v>
+      </c>
+      <c r="S143">
+        <v>0</v>
+      </c>
+      <c r="T143">
+        <v>0</v>
+      </c>
+      <c r="U143">
+        <v>0</v>
+      </c>
+      <c r="V143">
+        <v>0</v>
+      </c>
+      <c r="W143">
+        <v>0</v>
+      </c>
+      <c r="X143">
+        <v>0</v>
+      </c>
+      <c r="Y143">
+        <v>0</v>
+      </c>
+      <c r="Z143">
+        <v>0</v>
+      </c>
+      <c r="AA143">
+        <v>2071</v>
+      </c>
+      <c r="AB143">
+        <v>-2071</v>
       </c>
     </row>
   </sheetData>
